--- a/Student/Data/WingtipSalesRegions.xlsx
+++ b/Student/Data/WingtipSalesRegions.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PBI365\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\PBI365\Student\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sales Regions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -740,7 +740,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
